--- a/input/fuelprices.xlsx
+++ b/input/fuelprices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="fuelprices" sheetId="1" state="visible" r:id="rId2"/>
@@ -226,8 +226,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,7 +261,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,7 +289,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,7 +303,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,7 +317,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +331,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +345,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,13 +632,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +679,7 @@
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>140</v>
       </c>
     </row>

--- a/input/fuelprices.xlsx
+++ b/input/fuelprices.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fuelprices" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="emissionprices" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="fuelprices" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="emissionprices" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Bottom" vbProcedure="false">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t xml:space="preserve">Scenario</t>
   </si>
@@ -219,15 +219,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,6 +718,188 @@
       </c>
       <c r="D27" s="4" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -630,10 +918,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,6 +971,20 @@
         <v>140</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
